--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Export_Note.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Export_Note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABD001B-03EC-488E-BCFA-32D0D3151CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF7A69C-3039-484B-9243-470C8F739E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="4668" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Mã lô</t>
   </si>
@@ -45,15 +45,23 @@
     <t>Bán</t>
   </si>
   <si>
-    <t>Sốt chocolate</t>
+    <t>Đường túi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -81,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -377,19 +386,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -398,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -407,6 +416,40 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>378</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>418</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
